--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Dropbox\RU - Tölvunarfræði\Haust 2020\VLN1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DCD167-08E1-4841-B3F6-68AE8D90A83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C6E2C9-BA42-4E74-89EF-180276DD58B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47D5924B-A49D-3B4D-A29C-3B0A8CD9EB8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{47D5924B-A49D-3B4D-A29C-3B0A8CD9EB8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Use Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="179">
   <si>
     <t>Notkunartilvik</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Notandi birtir upplýsingar um alla taxta</t>
-  </si>
-  <si>
-    <t>Notandi skráir ítarupplýsingar um ökutæki (tegund, framleiðanda, aldur, lit, kröfu um réttindi)</t>
   </si>
   <si>
     <t>Notandi setur inn dagsektir vegna bíls sem skilað er inn of seint</t>
@@ -160,13 +157,470 @@
   </si>
   <si>
     <t>Precondition</t>
+  </si>
+  <si>
+    <t>Notandi sækir skýrslu um nýtingu á farartækjum á hverjum stað, flokkað eftir tegund</t>
+  </si>
+  <si>
+    <t>Notandi sækir skýrslu um reikninga á ákveðnu tímabili og flokkar þá eftir viðskiptavinum</t>
+  </si>
+  <si>
+    <t>Flokka eftir viðskiptavinum
+Flokka eftir hvort þeir séu farnir í innheimtu (rukkaðir)</t>
+  </si>
+  <si>
+    <t>Notandi skráir ítarupplýsingar um ökutæki</t>
+  </si>
+  <si>
+    <t>Tegund farartækis
+Framleiðanda
+Aldur
+Lit
+Kröfu um réttindi til að stjórna farartæki</t>
+  </si>
+  <si>
+    <t>Notandi skráir upplýsingar um leigjanda</t>
+  </si>
+  <si>
+    <t>Land
+Flugvöllur
+Símanúmer
+Opnunartími</t>
+  </si>
+  <si>
+    <t>Auðkennisnúmer farartækis
+Ástand ökutækis</t>
+  </si>
+  <si>
+    <t>Nafn
+Heimilisfang
+Símanúmer
+Netfang
+Tímabil leigusamnings
+Staðsetning (Land sem leigan fer fram í)</t>
+  </si>
+  <si>
+    <t>Upplýsingar um leigjanda
+Dagsetning á gerð samnings
+Upplýsingar um farartækið
+Gildistími leigusamnings og lands
+Dagsetning og staðsetning á afhendingu farartækis (skráð við afhendingu)
+Dagsetning og staðsetning á móttöku faratækis (skráð við skil)
+Starfsmaður sem afgreiddi
+Hvenær dags afgreitt
+Taxta og heildarupphæð fyrir leigu á ökutæki
+(ekki hægt að leigja tæki í útleigu)</t>
+  </si>
+  <si>
+    <t>Description (base flow)</t>
+  </si>
+  <si>
+    <t>Alternative flow</t>
+  </si>
+  <si>
+    <t>Post condition</t>
+  </si>
+  <si>
+    <t>Source (requirements)</t>
+  </si>
+  <si>
+    <t>Actors</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
+    <t>Main Success Scenario</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Ragnar</t>
+  </si>
+  <si>
+    <t>Use Case (ENG)</t>
+  </si>
+  <si>
+    <t>Use Case (ISL)</t>
+  </si>
+  <si>
+    <t>User retrieves a list of employees</t>
+  </si>
+  <si>
+    <t>User updates how an employee can be reached</t>
+  </si>
+  <si>
+    <t>User retrieves information about the location of all vehicles</t>
+  </si>
+  <si>
+    <t>User retrieves information about the condition of all vehicles</t>
+  </si>
+  <si>
+    <t>User updates the condition of the vehicle</t>
+  </si>
+  <si>
+    <t>User creates a new contract</t>
+  </si>
+  <si>
+    <t>User registers information about a customer (renter)</t>
+  </si>
+  <si>
+    <t>User retrieves information about all rental contractrs</t>
+  </si>
+  <si>
+    <t>User retrieves information about a single contract</t>
+  </si>
+  <si>
+    <t>User changes the vehicle of the contract</t>
+  </si>
+  <si>
+    <t>User annul's the contract (reject's or delete)</t>
+  </si>
+  <si>
+    <t>User creates new destination</t>
+  </si>
+  <si>
+    <t>User retrieves a list of all destinations</t>
+  </si>
+  <si>
+    <t>User print previews a contract</t>
+  </si>
+  <si>
+    <t>User register additional information about a vehicle</t>
+  </si>
+  <si>
+    <t>User registers a rate for the vehicle</t>
+  </si>
+  <si>
+    <t>User updates the rate of a vehicle</t>
+  </si>
+  <si>
+    <t>User retrieves a list of all rates</t>
+  </si>
+  <si>
+    <t>User adds a fine to the payment because of late return</t>
+  </si>
+  <si>
+    <t>Admin user updates the permission settings for an employee at an airport</t>
+  </si>
+  <si>
+    <t>Admin user updates the permission settings for an employee in Reykjavík</t>
+  </si>
+  <si>
+    <t>User retrieves an overview report of all revenues for a given period</t>
+  </si>
+  <si>
+    <t>User registers a VIP customer and adds a discount</t>
+  </si>
+  <si>
+    <t>User tags a customer as "late returner" for future references</t>
+  </si>
+  <si>
+    <t>User retrieves a report on utilization of vehicles for all destinations, filtered by Type</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>New employee registered in database</t>
+  </si>
+  <si>
+    <t>User enters information about employee:
+1. Name
+2. Social security number
+3. Phone number (home)
+4. Phone number (mobile)
+5. Email
+6. User selects a destination workplace from a list
+7. Submits form</t>
+  </si>
+  <si>
+    <t>User enters in employee details name, social security number, contact info and the workplace the employee works in and submits the form.</t>
+  </si>
+  <si>
+    <t>2a. If Social security number already exists then user is notified that he needs to update the employee instead.
+2b. User is notified if he enters the social security number in an incorrect format.
+3a. User is notified if he enters the phone number in an incorrect format.
+4a. User is notified if he enters the phone number in an incorrect format.
+5a. User is notified if he enters the email in incorrect format</t>
+  </si>
+  <si>
+    <t>User retrieves information about all vehicles that are available and in driving condition</t>
+  </si>
+  <si>
+    <t>If the user enters information in incorrect format he is notified. If he enters information about an excisting employee he is notified that he will need to update the employee information.</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>One or more vehicles already created</t>
+  </si>
+  <si>
+    <t>One or more vehicles and one or more destinations already created</t>
+  </si>
+  <si>
+    <t>One or more employees created</t>
+  </si>
+  <si>
+    <t>User creates a new employee</t>
+  </si>
+  <si>
+    <t>User creates a new vehicle</t>
+  </si>
+  <si>
+    <t>User registers the condition of a vehicle</t>
+  </si>
+  <si>
+    <t>One or more vehicles already created and vehicle condition information added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is running the software and has Reykjavik permissions </t>
+  </si>
+  <si>
+    <t>User updates the contract time period</t>
+  </si>
+  <si>
+    <t>User has Reykjavik permissions and one or more contracts have been created</t>
+  </si>
+  <si>
+    <t>User has Reykjavik permissions and one or more contracts have been created and one or more vehicles</t>
+  </si>
+  <si>
+    <t>User has Admin permissions</t>
+  </si>
+  <si>
+    <t>One or more destinations have been created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User has Airport Staff permissions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User has Reykjavik permissions </t>
+  </si>
+  <si>
+    <t>User has Airport Staff permissions and vehicle is being or has been created</t>
+  </si>
+  <si>
+    <t>User has Airport Staff permissions and one or more rate has been added to vehicles</t>
+  </si>
+  <si>
+    <t>User has Airport Staff permissions and a vehicle has already been rented (contract created)</t>
+  </si>
+  <si>
+    <t>User retrieves a revenue report and filters for vehicles and destinations offices</t>
+  </si>
+  <si>
+    <t>User has Reykjavik permissions and one or more destinations have been created and vehicles have been rented out (contracts created)</t>
+  </si>
+  <si>
+    <t>User has Airport Staff permissions, destinations have been created and vehicles rented out</t>
+  </si>
+  <si>
+    <t>User has Airport Staff permissions, destinations have been created and vehicles rented out and type information added to the vehicle</t>
+  </si>
+  <si>
+    <t>User retrieves a report about invoices for a given period and filters for customers</t>
+  </si>
+  <si>
+    <t>User has Reykjavik permissions and a customer has already been registered</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Nafn
+Kennitölu
+Heimasíma
+GSM síma
+netfang
+Vinnsutaður (Landfræðilega)</t>
+  </si>
+  <si>
+    <t>Social Security ID</t>
+  </si>
+  <si>
+    <t>Phone (home)</t>
+  </si>
+  <si>
+    <t>Phone (mobile)</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Workplace/Destination/Country</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Dicount</t>
+  </si>
+  <si>
+    <t>Late return (Blacklisted)</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Credit Card Number</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Phone Numer</t>
+  </si>
+  <si>
+    <t>Opening Hours</t>
+  </si>
+  <si>
+    <t>User enters employee portal and selects the option to previews a list of all employees registered in the system</t>
+  </si>
+  <si>
+    <t>If there are no users listed the system returns a notification that there are no employees listed and asks if user would like to create a new employee</t>
+  </si>
+  <si>
+    <t>1. User enters Staff Portal
+2. Selects the option to list all employees
+3. System prints a list of all employees on screen</t>
+  </si>
+  <si>
+    <t>User has Admin persmissions. At least one employee has been created in the system</t>
+  </si>
+  <si>
+    <t>3a. If no employees have been created the user receives a notification that there are no employees listed and is offered to create a new employee and is linked to the interface in no.1</t>
+  </si>
+  <si>
+    <t>User goes into the employee portal, selects a specific user and updates the contact information of the employee. Once an employee has been created the user can not update the name or Social Security Number.</t>
+  </si>
+  <si>
+    <t>The user will need to control whether to go back or save the changes made on the selected employee</t>
+  </si>
+  <si>
+    <t>Contact information for the employee have been updated</t>
+  </si>
+  <si>
+    <t>A new vehicle has been created with a unique Identification number</t>
+  </si>
+  <si>
+    <t>A list of all employees with all employee information mentioned in no.1 appears on screen</t>
+  </si>
+  <si>
+    <t>A list of all locations for all vehicles appear on screen</t>
+  </si>
+  <si>
+    <t>1. User enters Staff Portal
+2. Selects a specific employee
+3. Updates the employee's contact details
+4. Saves the changes</t>
+  </si>
+  <si>
+    <t>4a. User cancels, which doesn't save the changes made (reverts back to previous information).</t>
+  </si>
+  <si>
+    <t>User selects the option to create a new vehicle from the main menu. He enters in the required information and saves the vehicle to the database.</t>
+  </si>
+  <si>
+    <t>The user can cancel and if he does so the vehicle is not stored in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User enters the Vehicle portal
+2. Selects the option to create a new vehicle
+3. </t>
+  </si>
+  <si>
+    <t>Type of Vehicle</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Required License</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Late fee</t>
+  </si>
+  <si>
+    <t>Upplýsingar um leigjanda</t>
+  </si>
+  <si>
+    <t>Dagsetning á gerð samnings</t>
+  </si>
+  <si>
+    <t>Upplýsingar um farartækið</t>
+  </si>
+  <si>
+    <t>Gildistími leigusamnings og lands</t>
+  </si>
+  <si>
+    <t>Dagsetning og staðsetning á afhendingu farartækis (skráð við afhendingu)</t>
+  </si>
+  <si>
+    <t>Dagsetning og staðsetning á móttöku faratækis (skráð við skil)</t>
+  </si>
+  <si>
+    <t>Starfsmaður sem afgreiddi</t>
+  </si>
+  <si>
+    <t>Hvenær dags afgreitt</t>
+  </si>
+  <si>
+    <t>Taxta og heildarupphæð fyrir leigu á ökutæki</t>
+  </si>
+  <si>
+    <t>(ekki hægt að leigja tæki í útleigu)</t>
+  </si>
+  <si>
+    <t>Unique ID (License Plate?)</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Condition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +630,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -212,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -229,12 +691,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -247,165 +800,26 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>937846</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>153865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>315058</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>183174</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA38659-EACB-4A88-91FA-10744BEE0213}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8308731" y="549519"/>
-          <a:ext cx="6594231" cy="3590193"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Til að hafa yfirlit með rekstrinum vill Chuck geta kallað fram eftirfarandi skýrslur í prentvænu</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>sniðmáti (print friendly formatting):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>– Yfirlit yfir tekjur þar sem ætti að vera hægt að velja tímabilið sem á að skoða. Einnig</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>væri gott að sjá sundurliðun á tekjum útibúa og tegund farartækja.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>– Yfirlit yfir nýtingu farartækja á hverjum stað, flokkað eftir tegund.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>– Yfirlit yfir reikninga á ákveðnu tímabili, þar sem hægt er að flokka eftir viðskiptavinum</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>og hvort þeir séu farnir í inheimtu (rukkaðir).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5FE9460-44FF-4C8E-A2C3-26A08058C6FC}" name="Table1" displayName="Table1" ref="A1:N33" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{865FD5B1-7D41-493C-A5BD-46B1EFE2D1FB}" name="Requirement" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{82C7A601-6423-4B88-BCCE-6CC70678111B}" name="Use Case (ENG)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4713B2CB-BAEE-4755-82AF-358DA36D876D}" name="Use Case (ISL)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{10DD672D-B926-4B20-84EB-DB5AF5F0B2AE}" name="Number" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{13CD9905-D3CC-43D4-A10D-9AAD059161EB}" name="Priority" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E9532284-42BF-4DFA-95F3-B7F732118500}" name="Precondition" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{927C827C-0061-45F6-9452-51298444CE53}" name="Description (base flow)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5ADD6783-1C70-4713-8B63-18A924595044}" name="Alternative flow" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3676B5F6-7958-40BC-AF8D-D2A26D53F907}" name="Post condition" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{2AFB177A-531D-4B30-B4DC-B75712B87DC1}" name="Source (requirements)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{92652C2F-204E-46E3-8DB3-004212C21755}" name="Actors" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{1B3987CC-5089-4009-B2BC-6701278D33DC}" name="Author" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{268877CD-A937-4F74-83BD-8E755E7D977D}" name="Main Success Scenario" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00F4769F-D936-4C25-B16F-75E6CEA50271}" name="Extensions" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,21 +1119,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5F95D4-BACD-9A45-BDF6-DE6B333D4B97}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" style="2"/>
     <col min="2" max="2" width="85.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="1"/>
+    <col min="3" max="3" width="51.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -730,15 +1145,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -754,15 +1172,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -770,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,7 +1199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -786,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -794,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -802,52 +1223,59 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,15 +1283,18 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,23 +1302,26 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,7 +1329,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,7 +1337,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,37 +1345,37 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,13 +1383,35 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -991,45 +1447,1450 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1988C750-2B03-4A08-B037-CAD707EE969B}">
-  <dimension ref="B4:B7"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B82" sqref="A37:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="29" style="12" customWidth="1"/>
+    <col min="9" max="9" width="21" style="12" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="44.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="74.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F1" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="G1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>